--- a/data2.xlsx
+++ b/data2.xlsx
@@ -14,16 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Dates</t>
-  </si>
-  <si>
-    <t>color 1</t>
-  </si>
-  <si>
-    <t>color 2</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>jan</t>
   </si>
@@ -31,14 +22,47 @@
     <t>feb</t>
   </si>
   <si>
-    <t>color 3</t>
+    <t>SIG allCap</t>
+  </si>
+  <si>
+    <t>combiCap, weiss 19099</t>
+  </si>
+  <si>
+    <t>combiCap, ecoweiss 19144</t>
+  </si>
+  <si>
+    <t>CAA</t>
+  </si>
+  <si>
+    <t>Paletten</t>
+  </si>
+  <si>
+    <t>Menge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lagerbestand Montag </t>
+  </si>
+  <si>
+    <t>älter als 6 Monate</t>
+  </si>
+  <si>
+    <t>gesperrt aus Produktion</t>
+  </si>
+  <si>
+    <t>gesperrt aus Rekl.</t>
+  </si>
+  <si>
+    <t>Produktion Datum</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -47,23 +71,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="8"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -80,18 +125,188 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 3" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -394,10 +609,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A7:Q40"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -405,22 +620,148 @@
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="10">
+        <v>8</v>
+      </c>
+      <c r="C3" s="11">
+        <v>761600</v>
+      </c>
+      <c r="D3" s="10">
+        <v>88</v>
+      </c>
+      <c r="E3" s="11">
+        <v>8377600</v>
+      </c>
+      <c r="F3" s="10">
+        <v>88</v>
+      </c>
+      <c r="G3" s="11">
+        <v>8377600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="12">
+        <v>0</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0</v>
+      </c>
+      <c r="E4" s="11">
+        <v>0</v>
+      </c>
+      <c r="F4" s="12">
+        <v>0</v>
+      </c>
+      <c r="G4" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="12">
+        <v>0</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0</v>
+      </c>
+      <c r="E5" s="11">
+        <v>0</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0</v>
+      </c>
+      <c r="G5" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="14">
+        <v>0</v>
+      </c>
+      <c r="C6" s="15">
+        <v>0</v>
+      </c>
+      <c r="D6" s="14">
+        <v>0</v>
+      </c>
+      <c r="E6" s="15">
+        <v>0</v>
+      </c>
+      <c r="F6" s="14">
+        <v>0</v>
+      </c>
+      <c r="G6" s="15">
+        <v>0</v>
+      </c>
+    </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A7" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="18"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -795,7 +1136,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C39">
         <f>SUM(C8:C19)+SUM(E8:E19)+SUM(G8:G19)</f>
@@ -804,7 +1145,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C40">
         <f>SUM(C20:C27)+SUM(E20:E27)+SUM(G20:G27)</f>
@@ -812,6 +1153,11 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>